--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_285.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_285.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,538 +488,550 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.525</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:01:14.100000', '0:01:20.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.675</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:20.904331')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min/C', 'D:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.72, 9.86)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:16.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08741554054054054</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'G:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G/5', 'C', 'E:min/5']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(24.840544, 28.544126)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.074863, 12.503707)]</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:03.320000', '0:00:06.300000'), ('0:00:00.560000', '0:00:04.260000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>schubert-winterreise_143</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -1023,182 +1040,128 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.08, 23.2)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.02, 15.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
